--- a/green_orange_purple/practice_green_orange_purple.xlsx
+++ b/green_orange_purple/practice_green_orange_purple.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/green_orange_purple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B11A52B-E99A-C547-A58E-4753EABD9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F7B01-5CC0-AB49-8A87-37467C3A1556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1420" windowWidth="28640" windowHeight="17260" xr2:uid="{FD126688-6BCD-034D-85E5-CD37F6E7C203}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$1:$M$7</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -548,7 +551,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -685,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>34</v>
